--- a/data-raw/fisica-quimica.xlsx
+++ b/data-raw/fisica-quimica.xlsx
@@ -626,12 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -804,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -884,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -964,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>1</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>1</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>1</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>1</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>1</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>1</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>1</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>1</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>1</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>1</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>1</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>1</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>1</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>1</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>1</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>1</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>1</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>1</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>1</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>1</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>1</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>1</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>1</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>1</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>1</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>1</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>1</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>1</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>1</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>1</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>1</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>1</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>1</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>1</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>1</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>1</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>1</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>1</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>1</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>1</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>1</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>1</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>1</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>1</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>1</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>1</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>1</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>1</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>1</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>1</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>1</v>
       </c>
@@ -7044,7 +7045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>1</v>
       </c>
@@ -7124,7 +7125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>1</v>
       </c>
@@ -7204,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>1</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>1</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>1</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>1</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>1</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>1</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>1</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>1</v>
       </c>
@@ -7844,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>1</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>3.832749999999999</v>
       </c>
       <c r="L91" s="12">
-        <v>1.5670194003527333</v>
+        <v>0.1</v>
       </c>
       <c r="M91" s="5">
         <v>2</v>
@@ -7924,7 +7925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>1</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>1</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>1</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>1</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>1</v>
       </c>
@@ -8404,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>1</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>1</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>5.469125</v>
       </c>
       <c r="L100" s="12">
-        <v>0.42042318307267712</v>
+        <v>0.1</v>
       </c>
       <c r="M100" s="5">
         <v>6</v>
@@ -8644,7 +8645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>1</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>1</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>1</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>1</v>
       </c>
@@ -9044,7 +9045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>1</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>1</v>
       </c>
@@ -9204,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>1</v>
       </c>
@@ -9284,7 +9285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>1</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>1</v>
       </c>
@@ -9524,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>1</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>1</v>
       </c>
@@ -9684,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>1</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>1</v>
       </c>
@@ -9924,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>1</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>1</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>1</v>
       </c>
@@ -10244,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>1</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>1</v>
       </c>
@@ -10404,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>1</v>
       </c>
@@ -10484,7 +10485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>1</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>1</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>1</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>1</v>
       </c>
@@ -10884,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>1</v>
       </c>
@@ -11044,7 +11045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>1</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>1</v>
       </c>
@@ -11204,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>1</v>
       </c>
@@ -11284,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>1</v>
       </c>
@@ -11444,7 +11445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>1</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>1</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>1</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>1</v>
       </c>
@@ -11764,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>1</v>
       </c>
@@ -11844,7 +11845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>1</v>
       </c>
@@ -11924,7 +11925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>1</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>1</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>1</v>
       </c>
@@ -12164,7 +12165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>1</v>
       </c>
@@ -12244,7 +12245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>1</v>
       </c>
@@ -12324,7 +12325,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>1</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>1</v>
       </c>
@@ -12484,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>1</v>
       </c>
@@ -12564,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>1</v>
       </c>
@@ -12644,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>1</v>
       </c>
@@ -12724,7 +12725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <v>1</v>
       </c>
@@ -12804,7 +12805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>1</v>
       </c>
@@ -12884,7 +12885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>1</v>
       </c>
@@ -12964,7 +12965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>1</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>1</v>
       </c>
@@ -13124,7 +13125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>1</v>
       </c>
@@ -13204,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>1</v>
       </c>
@@ -13284,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>1</v>
       </c>
@@ -13364,7 +13365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>1</v>
       </c>
@@ -13444,7 +13445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>1</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>1</v>
       </c>
@@ -13604,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>1</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <v>1</v>
       </c>
@@ -13764,7 +13765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>1</v>
       </c>
@@ -13844,7 +13845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <v>1</v>
       </c>
@@ -13924,7 +13925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>1</v>
       </c>
@@ -14004,7 +14005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>1</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>1</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>1</v>
       </c>
@@ -14244,7 +14245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>1</v>
       </c>
@@ -14324,7 +14325,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>1</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>1</v>
       </c>
@@ -14484,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>1</v>
       </c>
@@ -14564,7 +14565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>1</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <v>1</v>
       </c>
@@ -14724,7 +14725,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <v>1</v>
       </c>
@@ -14804,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <v>1</v>
       </c>
@@ -14884,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>1</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <v>1</v>
       </c>
@@ -15044,7 +15045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <v>1</v>
       </c>
@@ -15124,7 +15125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <v>2</v>
       </c>
@@ -15204,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
         <v>2</v>
       </c>
@@ -15284,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <v>2</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <v>2</v>
       </c>
@@ -15444,7 +15445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <v>2</v>
       </c>
@@ -15524,7 +15525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
         <v>2</v>
       </c>
@@ -15604,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
         <v>2</v>
       </c>
@@ -15684,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
         <v>2</v>
       </c>
@@ -15764,7 +15765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <v>2</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <v>2</v>
       </c>
@@ -15924,7 +15925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <v>2</v>
       </c>
@@ -16004,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <v>2</v>
       </c>
@@ -16084,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <v>2</v>
       </c>
@@ -16164,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <v>2</v>
       </c>
@@ -16244,7 +16245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11">
         <v>2</v>
       </c>
@@ -16324,7 +16325,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11">
         <v>2</v>
       </c>
@@ -16404,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
         <v>2</v>
       </c>
@@ -16484,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
         <v>2</v>
       </c>
@@ -16564,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <v>2</v>
       </c>
@@ -16644,7 +16645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11">
         <v>2</v>
       </c>
@@ -16724,7 +16725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
         <v>2</v>
       </c>
@@ -16804,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11">
         <v>2</v>
       </c>
@@ -16884,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11">
         <v>2</v>
       </c>
@@ -16964,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11">
         <v>2</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11">
         <v>2</v>
       </c>
@@ -17124,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11">
         <v>2</v>
       </c>
@@ -17204,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11">
         <v>2</v>
       </c>
@@ -17284,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11">
         <v>2</v>
       </c>
@@ -17364,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
         <v>2</v>
       </c>
@@ -17444,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11">
         <v>2</v>
       </c>
@@ -17524,7 +17525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11">
         <v>2</v>
       </c>
@@ -17604,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11">
         <v>2</v>
       </c>
@@ -17684,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11">
         <v>2</v>
       </c>
@@ -17764,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11">
         <v>2</v>
       </c>
@@ -17844,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11">
         <v>2</v>
       </c>
@@ -17924,7 +17925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11">
         <v>2</v>
       </c>
@@ -18004,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11">
         <v>2</v>
       </c>
@@ -18084,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11">
         <v>2</v>
       </c>
@@ -18164,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11">
         <v>2</v>
       </c>
@@ -18244,7 +18245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11">
         <v>2</v>
       </c>
@@ -18324,7 +18325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11">
         <v>2</v>
       </c>
@@ -18404,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11">
         <v>2</v>
       </c>
@@ -18484,7 +18485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11">
         <v>2</v>
       </c>
@@ -18564,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11">
         <v>2</v>
       </c>
@@ -18644,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11">
         <v>2</v>
       </c>
@@ -18724,7 +18725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11">
         <v>2</v>
       </c>
@@ -18804,7 +18805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11">
         <v>2</v>
       </c>
@@ -18884,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11">
         <v>2</v>
       </c>
@@ -18964,7 +18965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11">
         <v>2</v>
       </c>
@@ -19044,7 +19045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11">
         <v>2</v>
       </c>
@@ -19124,7 +19125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11">
         <v>2</v>
       </c>
@@ -19204,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11">
         <v>2</v>
       </c>
@@ -19284,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11">
         <v>2</v>
       </c>
@@ -19364,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11">
         <v>2</v>
       </c>
@@ -19444,7 +19445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11">
         <v>2</v>
       </c>
@@ -19524,7 +19525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11">
         <v>2</v>
       </c>
@@ -19604,7 +19605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11">
         <v>2</v>
       </c>
@@ -19684,7 +19685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11">
         <v>2</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11">
         <v>2</v>
       </c>
@@ -19844,7 +19845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11">
         <v>2</v>
       </c>
@@ -19924,7 +19925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="11">
         <v>2</v>
       </c>
@@ -20004,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11">
         <v>2</v>
       </c>
@@ -20084,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11">
         <v>2</v>
       </c>
@@ -20164,7 +20165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11">
         <v>2</v>
       </c>
@@ -20244,7 +20245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="11">
         <v>2</v>
       </c>
@@ -20324,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11">
         <v>2</v>
       </c>
@@ -20404,7 +20405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="11">
         <v>2</v>
       </c>
@@ -20484,7 +20485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11">
         <v>2</v>
       </c>
@@ -20564,7 +20565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11">
         <v>2</v>
       </c>
@@ -20644,7 +20645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11">
         <v>2</v>
       </c>
@@ -20724,7 +20725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="11">
         <v>2</v>
       </c>
@@ -20804,7 +20805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11">
         <v>2</v>
       </c>
@@ -20884,7 +20885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11">
         <v>2</v>
       </c>
@@ -20964,7 +20965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11">
         <v>2</v>
       </c>
@@ -21044,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11">
         <v>2</v>
       </c>
@@ -21124,7 +21125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11">
         <v>2</v>
       </c>
@@ -21204,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="11">
         <v>2</v>
       </c>
@@ -21284,7 +21285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11">
         <v>2</v>
       </c>
@@ -21364,7 +21365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11">
         <v>2</v>
       </c>
@@ -21444,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="11">
         <v>2</v>
       </c>
@@ -21524,7 +21525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11">
         <v>2</v>
       </c>
@@ -21604,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="11">
         <v>2</v>
       </c>
@@ -21684,7 +21685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="11">
         <v>2</v>
       </c>
@@ -21764,7 +21765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="11">
         <v>2</v>
       </c>
@@ -21844,7 +21845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="11">
         <v>2</v>
       </c>
@@ -21924,7 +21925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="11">
         <v>2</v>
       </c>
@@ -22004,7 +22005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11">
         <v>2</v>
       </c>
@@ -22084,7 +22085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="11">
         <v>2</v>
       </c>
@@ -22164,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11">
         <v>2</v>
       </c>
@@ -22244,7 +22245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="11">
         <v>2</v>
       </c>
@@ -22324,7 +22325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="11">
         <v>2</v>
       </c>
@@ -22404,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="11">
         <v>2</v>
       </c>
@@ -22484,7 +22485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="11">
         <v>2</v>
       </c>
@@ -22644,7 +22645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11">
         <v>2</v>
       </c>
@@ -22724,7 +22725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
         <v>2</v>
       </c>
@@ -22804,7 +22805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11">
         <v>2</v>
       </c>
@@ -22884,7 +22885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
         <v>2</v>
       </c>
@@ -23044,7 +23045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11">
         <v>2</v>
       </c>
@@ -23124,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
         <v>2</v>
       </c>
@@ -23204,7 +23205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
         <v>2</v>
       </c>
@@ -23284,7 +23285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11">
         <v>2</v>
       </c>
@@ -23444,7 +23445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="11">
         <v>2</v>
       </c>
@@ -23524,7 +23525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
         <v>2</v>
       </c>
@@ -23604,7 +23605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
         <v>2</v>
       </c>
@@ -23684,7 +23685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
         <v>2</v>
       </c>
@@ -23844,7 +23845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
         <v>2</v>
       </c>
@@ -23924,7 +23925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
         <v>2</v>
       </c>
@@ -24004,7 +24005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
         <v>2</v>
       </c>
@@ -24084,7 +24085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
         <v>2</v>
       </c>
@@ -24244,7 +24245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="11">
         <v>2</v>
       </c>
@@ -24324,7 +24325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="11">
         <v>2</v>
       </c>
@@ -24404,7 +24405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="11">
         <v>2</v>
       </c>
@@ -24484,7 +24485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
         <v>2</v>
       </c>
@@ -24644,7 +24645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11">
         <v>2</v>
       </c>
@@ -24724,7 +24725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="11">
         <v>2</v>
       </c>
@@ -24804,7 +24805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11">
         <v>2</v>
       </c>
@@ -24884,7 +24885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11">
         <v>2</v>
       </c>
@@ -25044,7 +25045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11">
         <v>2</v>
       </c>
@@ -25124,7 +25125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="11">
         <v>2</v>
       </c>
@@ -25204,7 +25205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11">
         <v>2</v>
       </c>
@@ -25284,7 +25285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="11">
         <v>2</v>
       </c>
@@ -25444,7 +25445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11">
         <v>2</v>
       </c>
@@ -25524,7 +25525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="11">
         <v>2</v>
       </c>
@@ -25604,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="11">
         <v>2</v>
       </c>
@@ -25684,7 +25685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11">
         <v>2</v>
       </c>
@@ -25844,7 +25845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="11">
         <v>2</v>
       </c>
@@ -25924,7 +25925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="11">
         <v>2</v>
       </c>
@@ -26004,7 +26005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11">
         <v>2</v>
       </c>
@@ -26084,7 +26085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="11">
         <v>2</v>
       </c>
@@ -26164,7 +26165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="11">
         <v>2</v>
       </c>
@@ -26244,7 +26245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="11">
         <v>2</v>
       </c>
@@ -26324,7 +26325,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11">
         <v>2</v>
       </c>
@@ -26404,7 +26405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11">
         <v>2</v>
       </c>
@@ -26484,7 +26485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11">
         <v>2</v>
       </c>
@@ -26564,7 +26565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="11">
         <v>2</v>
       </c>
@@ -26644,7 +26645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="11">
         <v>2</v>
       </c>
@@ -26724,7 +26725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="11">
         <v>2</v>
       </c>
@@ -26804,7 +26805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="11">
         <v>2</v>
       </c>
@@ -26884,7 +26885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11">
         <v>2</v>
       </c>
@@ -26964,7 +26965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="11">
         <v>2</v>
       </c>
@@ -27044,7 +27045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11">
         <v>2</v>
       </c>
@@ -27124,7 +27125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="11">
         <v>2</v>
       </c>
@@ -27204,7 +27205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="11">
         <v>2</v>
       </c>
@@ -27284,7 +27285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="11">
         <v>2</v>
       </c>
@@ -27364,7 +27365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="11">
         <v>2</v>
       </c>
@@ -27444,7 +27445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="11">
         <v>2</v>
       </c>
@@ -27524,7 +27525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11">
         <v>2</v>
       </c>
@@ -27604,7 +27605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="11">
         <v>2</v>
       </c>
@@ -27684,7 +27685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="11">
         <v>2</v>
       </c>
@@ -27764,7 +27765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11">
         <v>2</v>
       </c>
@@ -27844,7 +27845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="11">
         <v>2</v>
       </c>
@@ -27924,7 +27925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="11">
         <v>2</v>
       </c>
@@ -28004,7 +28005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="11">
         <v>2</v>
       </c>
@@ -28084,7 +28085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="11">
         <v>2</v>
       </c>
@@ -28164,7 +28165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="11">
         <v>2</v>
       </c>
@@ -28244,7 +28245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="11">
         <v>2</v>
       </c>
@@ -28324,7 +28325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11">
         <v>2</v>
       </c>
@@ -28404,7 +28405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="11">
         <v>2</v>
       </c>
@@ -28484,7 +28485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11">
         <v>2</v>
       </c>
@@ -28564,7 +28565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="11">
         <v>2</v>
       </c>
@@ -28644,7 +28645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="11">
         <v>2</v>
       </c>
@@ -28724,7 +28725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="11">
         <v>2</v>
       </c>
@@ -28804,7 +28805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="11">
         <v>2</v>
       </c>
@@ -28884,7 +28885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11">
         <v>2</v>
       </c>
@@ -28964,7 +28965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="11">
         <v>2</v>
       </c>
@@ -29044,7 +29045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="11">
         <v>2</v>
       </c>
@@ -29124,7 +29125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="11">
         <v>2</v>
       </c>
@@ -29204,7 +29205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="11">
         <v>2</v>
       </c>
@@ -29284,7 +29285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="11">
         <v>2</v>
       </c>
@@ -29364,7 +29365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="11">
         <v>2</v>
       </c>
@@ -29444,7 +29445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="11">
         <v>2</v>
       </c>
@@ -29525,6 +29526,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z361">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Rip Strip"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0,20-0,40"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>